--- a/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_test_2016_2019/pwbTable.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_test_2016_2019/pwbTable.xlsx
@@ -113,13 +113,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>3.3300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="0">
         <v>2.0800000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>3.75</v>
+        <v>0.41999999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -127,13 +127,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>9.1699999999999999</v>
+        <v>12.92</v>
       </c>
       <c r="C3" s="0">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D3" s="0">
-        <v>12.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="4">
@@ -141,13 +141,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>22.920000000000002</v>
+        <v>21.670000000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>20.829999999999998</v>
+        <v>22.5</v>
       </c>
       <c r="D4" s="0">
-        <v>20.420000000000002</v>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -155,13 +155,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>42.5</v>
+        <v>42.079999999999998</v>
       </c>
       <c r="C5" s="0">
-        <v>42.5</v>
+        <v>40.829999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>40</v>
+        <v>39.579999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -169,13 +169,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>58.329999999999998</v>
+        <v>56.25</v>
       </c>
       <c r="C6" s="0">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="D6" s="0">
-        <v>57.5</v>
+        <v>51.670000000000002</v>
       </c>
     </row>
   </sheetData>
